--- a/Data/seat_cinema_data.xlsx
+++ b/Data/seat_cinema_data.xlsx
@@ -1624,7 +1624,7 @@
   <dimension ref="A1:V1001"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="1" sqref="B8:B9 E6"/>
+      <selection pane="topLeft" activeCell="E6" activeCellId="1" sqref="G16:G21 E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -25743,7 +25743,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F12" activeCellId="1" sqref="B8:B9 F12"/>
+      <selection pane="topLeft" activeCell="F12" activeCellId="1" sqref="G16:G21 F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -36336,7 +36336,7 @@
   <dimension ref="A1:K1001"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8:B9"/>
+      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -36512,9 +36512,9 @@
       <c r="E5" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="26" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="F5" s="28" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="G5" s="28" t="b">
         <f aca="false">TRUE()</f>
@@ -36549,9 +36549,9 @@
       <c r="E6" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="26" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="F6" s="28" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="G6" s="28" t="b">
         <f aca="false">TRUE()</f>
@@ -36586,9 +36586,9 @@
       <c r="E7" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="26" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="F7" s="28" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="G7" s="28" t="b">
         <f aca="false">TRUE()</f>
@@ -36623,9 +36623,9 @@
       <c r="E8" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="26" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="F8" s="28" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="G8" s="28" t="b">
         <f aca="false">TRUE()</f>
@@ -36660,9 +36660,9 @@
       <c r="E9" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="26" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="F9" s="28" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="G9" s="28" t="b">
         <f aca="false">TRUE()</f>
@@ -36697,9 +36697,9 @@
       <c r="E10" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="26" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="F10" s="28" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="G10" s="28" t="b">
         <f aca="false">TRUE()</f>
@@ -36734,9 +36734,9 @@
       <c r="E11" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="26" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="F11" s="28" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="G11" s="28" t="b">
         <f aca="false">TRUE()</f>
@@ -36771,7 +36771,7 @@
       <c r="E12" s="26" t="s">
         <v>289</v>
       </c>
-      <c r="F12" s="26" t="n">
+      <c r="F12" s="28" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -36808,7 +36808,7 @@
       <c r="E13" s="26" t="s">
         <v>289</v>
       </c>
-      <c r="F13" s="26" t="n">
+      <c r="F13" s="28" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -36845,7 +36845,7 @@
       <c r="E14" s="26" t="s">
         <v>289</v>
       </c>
-      <c r="F14" s="26" t="n">
+      <c r="F14" s="28" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -36882,7 +36882,7 @@
       <c r="E15" s="26" t="s">
         <v>289</v>
       </c>
-      <c r="F15" s="26" t="n">
+      <c r="F15" s="28" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -36919,11 +36919,11 @@
       <c r="E16" s="26" t="s">
         <v>303</v>
       </c>
-      <c r="F16" s="26" t="n">
+      <c r="F16" s="28" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G16" s="26" t="n">
+      <c r="G16" s="28" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -36956,11 +36956,11 @@
       <c r="E17" s="26" t="s">
         <v>303</v>
       </c>
-      <c r="F17" s="26" t="n">
+      <c r="F17" s="28" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G17" s="26" t="n">
+      <c r="G17" s="28" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -36993,11 +36993,11 @@
       <c r="E18" s="26" t="s">
         <v>303</v>
       </c>
-      <c r="F18" s="26" t="n">
+      <c r="F18" s="28" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G18" s="26" t="n">
+      <c r="G18" s="28" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -37030,11 +37030,11 @@
       <c r="E19" s="26" t="s">
         <v>303</v>
       </c>
-      <c r="F19" s="26" t="n">
+      <c r="F19" s="28" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G19" s="26" t="n">
+      <c r="G19" s="28" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -37067,11 +37067,11 @@
       <c r="E20" s="26" t="s">
         <v>303</v>
       </c>
-      <c r="F20" s="26" t="n">
+      <c r="F20" s="28" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G20" s="26" t="n">
+      <c r="G20" s="28" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -37104,11 +37104,11 @@
       <c r="E21" s="26" t="s">
         <v>303</v>
       </c>
-      <c r="F21" s="26" t="n">
+      <c r="F21" s="28" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G21" s="26" t="n">
+      <c r="G21" s="28" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>

--- a/Data/seat_cinema_data.xlsx
+++ b/Data/seat_cinema_data.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="520">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -719,6 +719,606 @@
   </si>
   <si>
     <t xml:space="preserve">Level 100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level_101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level 101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level_102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level 102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level_103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level 103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level_104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level 104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level_105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level 105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level_106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level 106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level_107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level 107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level_108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level 108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level_109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level 109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level_110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level 110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level_111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level 111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level_112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level 112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level_113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level 113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level_114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level 114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level_115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level 115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level_116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level 116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level_117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level 117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level_118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level 118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level_119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level 119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level_120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level 120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level_121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level 121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level_122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level 122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level_123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level 123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level_124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level 124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level_125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level 125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level_126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level 126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level_127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level 127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level_128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level 128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level_129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level 129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level_130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level 130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level_131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level 131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level_132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level 132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level_133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level 133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level_134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level 134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level_135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level 135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level_136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level 136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level_137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level 137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level_138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level 138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level_139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level 139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level_140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level 140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level_141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level 141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level_142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level 142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level_143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level 143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level_144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level 144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level_145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level 145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level_146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level 146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level_147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level 147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level_148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level 148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level_149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level 149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level_150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level 150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level_151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level 151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level_152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level 152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level_153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level 153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level_154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level 154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level_155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level 155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level_156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level 156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level_157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level 157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level_158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level 158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level_159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level 159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level_160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level 160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level_161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level 161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level_162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level 162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level_163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level 163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level_164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level 164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level_165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level 165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level_166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level 166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level_167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level 167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level_168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level 168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level_169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level 169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level_170</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level 170</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level_171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level 171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level_172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level 172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level_173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level 173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level_174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level 174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level_175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level 175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level_176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level 176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level_177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level 177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level_178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level 178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level_179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level 179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level_180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level 180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level_181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level 181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level_182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level 182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level_183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level 183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level_184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level 184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level_185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level 185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level_186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level 186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level_187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level 187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level_188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level 188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level_189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level 189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level_190</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level 190</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level_191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level 191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level_192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level 192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level_193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level 193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level_194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level 194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level_195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level 195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level_196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level 196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level_197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level 197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level_198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level 198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level_199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level 199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level_200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level 200</t>
   </si>
   <si>
     <t xml:space="preserve">listingName</t>
@@ -1624,7 +2224,7 @@
   <dimension ref="A1:V1001"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="1" sqref="G16:G21 E6"/>
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -25742,8 +26342,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F12" activeCellId="1" sqref="G16:G21 F12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A75" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G103" activeCellId="0" sqref="G103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -28245,904 +28845,2404 @@
       </c>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="25"/>
-      <c r="B104" s="26"/>
-      <c r="C104" s="26"/>
-      <c r="D104" s="26"/>
-      <c r="E104" s="26"/>
-      <c r="F104" s="26"/>
-      <c r="G104" s="26"/>
+      <c r="A104" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="B104" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C104" s="27" t="n">
+        <v>101</v>
+      </c>
+      <c r="D104" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="E104" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F104" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G104" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="25"/>
-      <c r="B105" s="26"/>
-      <c r="C105" s="26"/>
-      <c r="D105" s="26"/>
-      <c r="E105" s="26"/>
-      <c r="F105" s="26"/>
-      <c r="G105" s="26"/>
+      <c r="A105" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="B105" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C105" s="27" t="n">
+        <v>102</v>
+      </c>
+      <c r="D105" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="E105" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F105" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G105" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="25"/>
-      <c r="B106" s="26"/>
-      <c r="C106" s="26"/>
-      <c r="D106" s="26"/>
-      <c r="E106" s="26"/>
-      <c r="F106" s="26"/>
-      <c r="G106" s="26"/>
+      <c r="A106" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="B106" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C106" s="27" t="n">
+        <v>103</v>
+      </c>
+      <c r="D106" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="E106" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F106" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G106" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="25"/>
-      <c r="B107" s="26"/>
-      <c r="C107" s="26"/>
-      <c r="D107" s="26"/>
-      <c r="E107" s="26"/>
-      <c r="F107" s="26"/>
-      <c r="G107" s="26"/>
+      <c r="A107" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="B107" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C107" s="27" t="n">
+        <v>104</v>
+      </c>
+      <c r="D107" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="E107" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F107" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G107" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="25"/>
-      <c r="B108" s="26"/>
-      <c r="C108" s="26"/>
-      <c r="D108" s="26"/>
-      <c r="E108" s="26"/>
-      <c r="F108" s="26"/>
-      <c r="G108" s="26"/>
+      <c r="A108" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="B108" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C108" s="27" t="n">
+        <v>105</v>
+      </c>
+      <c r="D108" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="E108" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F108" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G108" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="25"/>
-      <c r="B109" s="26"/>
-      <c r="C109" s="26"/>
-      <c r="D109" s="26"/>
-      <c r="E109" s="26"/>
-      <c r="F109" s="26"/>
-      <c r="G109" s="26"/>
+      <c r="A109" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="B109" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C109" s="27" t="n">
+        <v>106</v>
+      </c>
+      <c r="D109" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="E109" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F109" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G109" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="25"/>
-      <c r="B110" s="26"/>
-      <c r="C110" s="26"/>
-      <c r="D110" s="26"/>
-      <c r="E110" s="26"/>
-      <c r="F110" s="26"/>
-      <c r="G110" s="26"/>
+      <c r="A110" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="B110" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C110" s="27" t="n">
+        <v>107</v>
+      </c>
+      <c r="D110" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="E110" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F110" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G110" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="25"/>
-      <c r="B111" s="26"/>
-      <c r="C111" s="26"/>
-      <c r="D111" s="26"/>
-      <c r="E111" s="26"/>
-      <c r="F111" s="26"/>
-      <c r="G111" s="26"/>
+      <c r="A111" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="B111" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C111" s="27" t="n">
+        <v>108</v>
+      </c>
+      <c r="D111" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="E111" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F111" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G111" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="25"/>
-      <c r="B112" s="26"/>
-      <c r="C112" s="26"/>
-      <c r="D112" s="26"/>
-      <c r="E112" s="26"/>
-      <c r="F112" s="26"/>
-      <c r="G112" s="26"/>
+      <c r="A112" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="B112" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C112" s="27" t="n">
+        <v>109</v>
+      </c>
+      <c r="D112" s="26" t="s">
+        <v>249</v>
+      </c>
+      <c r="E112" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F112" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G112" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="25"/>
-      <c r="B113" s="26"/>
-      <c r="C113" s="26"/>
-      <c r="D113" s="26"/>
-      <c r="E113" s="26"/>
-      <c r="F113" s="26"/>
-      <c r="G113" s="26"/>
+      <c r="A113" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="B113" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C113" s="27" t="n">
+        <v>110</v>
+      </c>
+      <c r="D113" s="26" t="s">
+        <v>251</v>
+      </c>
+      <c r="E113" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F113" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G113" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="25"/>
-      <c r="B114" s="26"/>
-      <c r="C114" s="26"/>
-      <c r="D114" s="26"/>
-      <c r="E114" s="26"/>
-      <c r="F114" s="26"/>
-      <c r="G114" s="26"/>
+      <c r="A114" s="25" t="s">
+        <v>252</v>
+      </c>
+      <c r="B114" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C114" s="27" t="n">
+        <v>111</v>
+      </c>
+      <c r="D114" s="26" t="s">
+        <v>253</v>
+      </c>
+      <c r="E114" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F114" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G114" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="25"/>
-      <c r="B115" s="26"/>
-      <c r="C115" s="26"/>
-      <c r="D115" s="26"/>
-      <c r="E115" s="26"/>
-      <c r="F115" s="26"/>
-      <c r="G115" s="26"/>
+      <c r="A115" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="B115" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C115" s="27" t="n">
+        <v>112</v>
+      </c>
+      <c r="D115" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="E115" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F115" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G115" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="25"/>
-      <c r="B116" s="26"/>
-      <c r="C116" s="26"/>
-      <c r="D116" s="26"/>
-      <c r="E116" s="26"/>
-      <c r="F116" s="26"/>
-      <c r="G116" s="26"/>
+      <c r="A116" s="25" t="s">
+        <v>256</v>
+      </c>
+      <c r="B116" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C116" s="27" t="n">
+        <v>113</v>
+      </c>
+      <c r="D116" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="E116" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F116" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G116" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="25"/>
-      <c r="B117" s="26"/>
-      <c r="C117" s="26"/>
-      <c r="D117" s="26"/>
-      <c r="E117" s="26"/>
-      <c r="F117" s="26"/>
-      <c r="G117" s="26"/>
+      <c r="A117" s="25" t="s">
+        <v>258</v>
+      </c>
+      <c r="B117" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C117" s="27" t="n">
+        <v>114</v>
+      </c>
+      <c r="D117" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="E117" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F117" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G117" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="25"/>
-      <c r="B118" s="26"/>
-      <c r="C118" s="26"/>
-      <c r="D118" s="26"/>
-      <c r="E118" s="26"/>
-      <c r="F118" s="26"/>
-      <c r="G118" s="26"/>
+      <c r="A118" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="B118" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C118" s="27" t="n">
+        <v>115</v>
+      </c>
+      <c r="D118" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="E118" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F118" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G118" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="25"/>
-      <c r="B119" s="26"/>
-      <c r="C119" s="26"/>
-      <c r="D119" s="26"/>
-      <c r="E119" s="26"/>
-      <c r="F119" s="26"/>
-      <c r="G119" s="26"/>
+      <c r="A119" s="25" t="s">
+        <v>262</v>
+      </c>
+      <c r="B119" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C119" s="27" t="n">
+        <v>116</v>
+      </c>
+      <c r="D119" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="E119" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F119" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G119" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="25"/>
-      <c r="B120" s="26"/>
-      <c r="C120" s="26"/>
-      <c r="D120" s="26"/>
-      <c r="E120" s="26"/>
-      <c r="F120" s="26"/>
-      <c r="G120" s="26"/>
+      <c r="A120" s="25" t="s">
+        <v>264</v>
+      </c>
+      <c r="B120" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C120" s="27" t="n">
+        <v>117</v>
+      </c>
+      <c r="D120" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="E120" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F120" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G120" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="25"/>
-      <c r="B121" s="26"/>
-      <c r="C121" s="26"/>
-      <c r="D121" s="26"/>
-      <c r="E121" s="26"/>
-      <c r="F121" s="26"/>
-      <c r="G121" s="26"/>
+      <c r="A121" s="25" t="s">
+        <v>266</v>
+      </c>
+      <c r="B121" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C121" s="27" t="n">
+        <v>118</v>
+      </c>
+      <c r="D121" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="E121" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F121" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G121" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="25"/>
-      <c r="B122" s="26"/>
-      <c r="C122" s="26"/>
-      <c r="D122" s="26"/>
-      <c r="E122" s="26"/>
-      <c r="F122" s="26"/>
-      <c r="G122" s="26"/>
+      <c r="A122" s="25" t="s">
+        <v>268</v>
+      </c>
+      <c r="B122" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C122" s="27" t="n">
+        <v>119</v>
+      </c>
+      <c r="D122" s="26" t="s">
+        <v>269</v>
+      </c>
+      <c r="E122" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F122" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G122" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="25"/>
-      <c r="B123" s="26"/>
-      <c r="C123" s="26"/>
-      <c r="D123" s="26"/>
-      <c r="E123" s="26"/>
-      <c r="F123" s="26"/>
-      <c r="G123" s="26"/>
+      <c r="A123" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="B123" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C123" s="27" t="n">
+        <v>120</v>
+      </c>
+      <c r="D123" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="E123" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F123" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G123" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="25"/>
-      <c r="B124" s="26"/>
-      <c r="C124" s="26"/>
-      <c r="D124" s="26"/>
-      <c r="E124" s="26"/>
-      <c r="F124" s="26"/>
-      <c r="G124" s="26"/>
+      <c r="A124" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="B124" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C124" s="27" t="n">
+        <v>121</v>
+      </c>
+      <c r="D124" s="26" t="s">
+        <v>273</v>
+      </c>
+      <c r="E124" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F124" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G124" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="25"/>
-      <c r="B125" s="26"/>
-      <c r="C125" s="26"/>
-      <c r="D125" s="26"/>
-      <c r="E125" s="26"/>
-      <c r="F125" s="26"/>
-      <c r="G125" s="26"/>
+      <c r="A125" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="B125" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C125" s="27" t="n">
+        <v>122</v>
+      </c>
+      <c r="D125" s="26" t="s">
+        <v>275</v>
+      </c>
+      <c r="E125" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F125" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G125" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="25"/>
-      <c r="B126" s="26"/>
-      <c r="C126" s="26"/>
-      <c r="D126" s="26"/>
-      <c r="E126" s="26"/>
-      <c r="F126" s="26"/>
-      <c r="G126" s="26"/>
+      <c r="A126" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="B126" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C126" s="27" t="n">
+        <v>123</v>
+      </c>
+      <c r="D126" s="26" t="s">
+        <v>277</v>
+      </c>
+      <c r="E126" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F126" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G126" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="25"/>
-      <c r="B127" s="26"/>
-      <c r="C127" s="26"/>
-      <c r="D127" s="26"/>
-      <c r="E127" s="26"/>
-      <c r="F127" s="26"/>
-      <c r="G127" s="26"/>
+      <c r="A127" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="B127" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C127" s="27" t="n">
+        <v>124</v>
+      </c>
+      <c r="D127" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="E127" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F127" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G127" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="25"/>
-      <c r="B128" s="26"/>
-      <c r="C128" s="26"/>
-      <c r="D128" s="26"/>
-      <c r="E128" s="26"/>
-      <c r="F128" s="26"/>
-      <c r="G128" s="26"/>
+      <c r="A128" s="25" t="s">
+        <v>280</v>
+      </c>
+      <c r="B128" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C128" s="27" t="n">
+        <v>125</v>
+      </c>
+      <c r="D128" s="26" t="s">
+        <v>281</v>
+      </c>
+      <c r="E128" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F128" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G128" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="25"/>
-      <c r="B129" s="26"/>
-      <c r="C129" s="26"/>
-      <c r="D129" s="26"/>
-      <c r="E129" s="26"/>
-      <c r="F129" s="26"/>
-      <c r="G129" s="26"/>
+      <c r="A129" s="25" t="s">
+        <v>282</v>
+      </c>
+      <c r="B129" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C129" s="27" t="n">
+        <v>126</v>
+      </c>
+      <c r="D129" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="E129" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F129" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G129" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="25"/>
-      <c r="B130" s="26"/>
-      <c r="C130" s="26"/>
-      <c r="D130" s="26"/>
-      <c r="E130" s="26"/>
-      <c r="F130" s="26"/>
-      <c r="G130" s="26"/>
+      <c r="A130" s="25" t="s">
+        <v>284</v>
+      </c>
+      <c r="B130" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C130" s="27" t="n">
+        <v>127</v>
+      </c>
+      <c r="D130" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="E130" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F130" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G130" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="25"/>
-      <c r="B131" s="26"/>
-      <c r="C131" s="26"/>
-      <c r="D131" s="26"/>
-      <c r="E131" s="26"/>
-      <c r="F131" s="26"/>
-      <c r="G131" s="26"/>
+      <c r="A131" s="25" t="s">
+        <v>286</v>
+      </c>
+      <c r="B131" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C131" s="27" t="n">
+        <v>128</v>
+      </c>
+      <c r="D131" s="26" t="s">
+        <v>287</v>
+      </c>
+      <c r="E131" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F131" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G131" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="25"/>
-      <c r="B132" s="26"/>
-      <c r="C132" s="26"/>
-      <c r="D132" s="26"/>
-      <c r="E132" s="26"/>
-      <c r="F132" s="26"/>
-      <c r="G132" s="26"/>
+      <c r="A132" s="25" t="s">
+        <v>288</v>
+      </c>
+      <c r="B132" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C132" s="27" t="n">
+        <v>129</v>
+      </c>
+      <c r="D132" s="26" t="s">
+        <v>289</v>
+      </c>
+      <c r="E132" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F132" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G132" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="25"/>
-      <c r="B133" s="26"/>
-      <c r="C133" s="26"/>
-      <c r="D133" s="26"/>
-      <c r="E133" s="26"/>
-      <c r="F133" s="26"/>
-      <c r="G133" s="26"/>
+      <c r="A133" s="25" t="s">
+        <v>290</v>
+      </c>
+      <c r="B133" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C133" s="27" t="n">
+        <v>130</v>
+      </c>
+      <c r="D133" s="26" t="s">
+        <v>291</v>
+      </c>
+      <c r="E133" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F133" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G133" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="25"/>
-      <c r="B134" s="26"/>
-      <c r="C134" s="26"/>
-      <c r="D134" s="26"/>
-      <c r="E134" s="26"/>
-      <c r="F134" s="26"/>
-      <c r="G134" s="26"/>
+      <c r="A134" s="25" t="s">
+        <v>292</v>
+      </c>
+      <c r="B134" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C134" s="27" t="n">
+        <v>131</v>
+      </c>
+      <c r="D134" s="26" t="s">
+        <v>293</v>
+      </c>
+      <c r="E134" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F134" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G134" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="25"/>
-      <c r="B135" s="26"/>
-      <c r="C135" s="26"/>
-      <c r="D135" s="26"/>
-      <c r="E135" s="26"/>
-      <c r="F135" s="26"/>
-      <c r="G135" s="26"/>
+      <c r="A135" s="25" t="s">
+        <v>294</v>
+      </c>
+      <c r="B135" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C135" s="27" t="n">
+        <v>132</v>
+      </c>
+      <c r="D135" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="E135" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F135" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G135" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="25"/>
-      <c r="B136" s="26"/>
-      <c r="C136" s="26"/>
-      <c r="D136" s="26"/>
-      <c r="E136" s="26"/>
-      <c r="F136" s="26"/>
-      <c r="G136" s="26"/>
+      <c r="A136" s="25" t="s">
+        <v>296</v>
+      </c>
+      <c r="B136" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C136" s="27" t="n">
+        <v>133</v>
+      </c>
+      <c r="D136" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="E136" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F136" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G136" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="25"/>
-      <c r="B137" s="26"/>
-      <c r="C137" s="26"/>
-      <c r="D137" s="26"/>
-      <c r="E137" s="26"/>
-      <c r="F137" s="26"/>
-      <c r="G137" s="26"/>
+      <c r="A137" s="25" t="s">
+        <v>298</v>
+      </c>
+      <c r="B137" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C137" s="27" t="n">
+        <v>134</v>
+      </c>
+      <c r="D137" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="E137" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F137" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G137" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="25"/>
-      <c r="B138" s="26"/>
-      <c r="C138" s="26"/>
-      <c r="D138" s="26"/>
-      <c r="E138" s="26"/>
-      <c r="F138" s="26"/>
-      <c r="G138" s="26"/>
+      <c r="A138" s="25" t="s">
+        <v>300</v>
+      </c>
+      <c r="B138" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C138" s="27" t="n">
+        <v>135</v>
+      </c>
+      <c r="D138" s="26" t="s">
+        <v>301</v>
+      </c>
+      <c r="E138" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F138" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G138" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="25"/>
-      <c r="B139" s="26"/>
-      <c r="C139" s="26"/>
-      <c r="D139" s="26"/>
-      <c r="E139" s="26"/>
-      <c r="F139" s="26"/>
-      <c r="G139" s="26"/>
+      <c r="A139" s="25" t="s">
+        <v>302</v>
+      </c>
+      <c r="B139" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C139" s="27" t="n">
+        <v>136</v>
+      </c>
+      <c r="D139" s="26" t="s">
+        <v>303</v>
+      </c>
+      <c r="E139" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F139" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G139" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="25"/>
-      <c r="B140" s="26"/>
-      <c r="C140" s="26"/>
-      <c r="D140" s="26"/>
-      <c r="E140" s="26"/>
-      <c r="F140" s="26"/>
-      <c r="G140" s="26"/>
+      <c r="A140" s="25" t="s">
+        <v>304</v>
+      </c>
+      <c r="B140" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C140" s="27" t="n">
+        <v>137</v>
+      </c>
+      <c r="D140" s="26" t="s">
+        <v>305</v>
+      </c>
+      <c r="E140" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F140" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G140" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="25"/>
-      <c r="B141" s="26"/>
-      <c r="C141" s="26"/>
-      <c r="D141" s="26"/>
-      <c r="E141" s="26"/>
-      <c r="F141" s="26"/>
-      <c r="G141" s="26"/>
+      <c r="A141" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="B141" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C141" s="27" t="n">
+        <v>138</v>
+      </c>
+      <c r="D141" s="26" t="s">
+        <v>307</v>
+      </c>
+      <c r="E141" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F141" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G141" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="25"/>
-      <c r="B142" s="26"/>
-      <c r="C142" s="26"/>
-      <c r="D142" s="26"/>
-      <c r="E142" s="26"/>
-      <c r="F142" s="26"/>
-      <c r="G142" s="26"/>
+      <c r="A142" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="B142" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C142" s="27" t="n">
+        <v>139</v>
+      </c>
+      <c r="D142" s="26" t="s">
+        <v>309</v>
+      </c>
+      <c r="E142" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F142" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G142" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="25"/>
-      <c r="B143" s="26"/>
-      <c r="C143" s="26"/>
-      <c r="D143" s="26"/>
-      <c r="E143" s="26"/>
-      <c r="F143" s="26"/>
-      <c r="G143" s="26"/>
+      <c r="A143" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="B143" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C143" s="27" t="n">
+        <v>140</v>
+      </c>
+      <c r="D143" s="26" t="s">
+        <v>311</v>
+      </c>
+      <c r="E143" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F143" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G143" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="25"/>
-      <c r="B144" s="26"/>
-      <c r="C144" s="26"/>
-      <c r="D144" s="26"/>
-      <c r="E144" s="26"/>
-      <c r="F144" s="26"/>
-      <c r="G144" s="26"/>
+      <c r="A144" s="25" t="s">
+        <v>312</v>
+      </c>
+      <c r="B144" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C144" s="27" t="n">
+        <v>141</v>
+      </c>
+      <c r="D144" s="26" t="s">
+        <v>313</v>
+      </c>
+      <c r="E144" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F144" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G144" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="25"/>
-      <c r="B145" s="26"/>
-      <c r="C145" s="26"/>
-      <c r="D145" s="26"/>
-      <c r="E145" s="26"/>
-      <c r="F145" s="26"/>
-      <c r="G145" s="26"/>
+      <c r="A145" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="B145" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C145" s="27" t="n">
+        <v>142</v>
+      </c>
+      <c r="D145" s="26" t="s">
+        <v>315</v>
+      </c>
+      <c r="E145" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F145" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G145" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="25"/>
-      <c r="B146" s="26"/>
-      <c r="C146" s="26"/>
-      <c r="D146" s="26"/>
-      <c r="E146" s="26"/>
-      <c r="F146" s="26"/>
-      <c r="G146" s="26"/>
+      <c r="A146" s="25" t="s">
+        <v>316</v>
+      </c>
+      <c r="B146" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C146" s="27" t="n">
+        <v>143</v>
+      </c>
+      <c r="D146" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="E146" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F146" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G146" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="25"/>
-      <c r="B147" s="26"/>
-      <c r="C147" s="26"/>
-      <c r="D147" s="26"/>
-      <c r="E147" s="26"/>
-      <c r="F147" s="26"/>
-      <c r="G147" s="26"/>
+      <c r="A147" s="25" t="s">
+        <v>318</v>
+      </c>
+      <c r="B147" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C147" s="27" t="n">
+        <v>144</v>
+      </c>
+      <c r="D147" s="26" t="s">
+        <v>319</v>
+      </c>
+      <c r="E147" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F147" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G147" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="25"/>
-      <c r="B148" s="26"/>
-      <c r="C148" s="26"/>
-      <c r="D148" s="26"/>
-      <c r="E148" s="26"/>
-      <c r="F148" s="26"/>
-      <c r="G148" s="26"/>
+      <c r="A148" s="25" t="s">
+        <v>320</v>
+      </c>
+      <c r="B148" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C148" s="27" t="n">
+        <v>145</v>
+      </c>
+      <c r="D148" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="E148" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F148" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G148" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="25"/>
-      <c r="B149" s="26"/>
-      <c r="C149" s="26"/>
-      <c r="D149" s="26"/>
-      <c r="E149" s="26"/>
-      <c r="F149" s="26"/>
-      <c r="G149" s="26"/>
+      <c r="A149" s="25" t="s">
+        <v>322</v>
+      </c>
+      <c r="B149" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C149" s="27" t="n">
+        <v>146</v>
+      </c>
+      <c r="D149" s="26" t="s">
+        <v>323</v>
+      </c>
+      <c r="E149" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F149" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G149" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="25"/>
-      <c r="B150" s="26"/>
-      <c r="C150" s="26"/>
-      <c r="D150" s="26"/>
-      <c r="E150" s="26"/>
-      <c r="F150" s="26"/>
-      <c r="G150" s="26"/>
+      <c r="A150" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="B150" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C150" s="27" t="n">
+        <v>147</v>
+      </c>
+      <c r="D150" s="26" t="s">
+        <v>325</v>
+      </c>
+      <c r="E150" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F150" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G150" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="25"/>
-      <c r="B151" s="26"/>
-      <c r="C151" s="26"/>
-      <c r="D151" s="26"/>
-      <c r="E151" s="26"/>
-      <c r="F151" s="26"/>
-      <c r="G151" s="26"/>
+      <c r="A151" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="B151" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C151" s="27" t="n">
+        <v>148</v>
+      </c>
+      <c r="D151" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="E151" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F151" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G151" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="25"/>
-      <c r="B152" s="26"/>
-      <c r="C152" s="26"/>
-      <c r="D152" s="26"/>
-      <c r="E152" s="26"/>
-      <c r="F152" s="26"/>
-      <c r="G152" s="26"/>
+      <c r="A152" s="25" t="s">
+        <v>328</v>
+      </c>
+      <c r="B152" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C152" s="27" t="n">
+        <v>149</v>
+      </c>
+      <c r="D152" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="E152" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F152" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G152" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="25"/>
-      <c r="B153" s="26"/>
-      <c r="C153" s="26"/>
-      <c r="D153" s="26"/>
-      <c r="E153" s="26"/>
-      <c r="F153" s="26"/>
-      <c r="G153" s="26"/>
+      <c r="A153" s="25" t="s">
+        <v>330</v>
+      </c>
+      <c r="B153" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C153" s="27" t="n">
+        <v>150</v>
+      </c>
+      <c r="D153" s="26" t="s">
+        <v>331</v>
+      </c>
+      <c r="E153" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F153" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G153" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="25"/>
-      <c r="B154" s="26"/>
-      <c r="C154" s="26"/>
-      <c r="D154" s="26"/>
-      <c r="E154" s="26"/>
-      <c r="F154" s="26"/>
-      <c r="G154" s="26"/>
+      <c r="A154" s="25" t="s">
+        <v>332</v>
+      </c>
+      <c r="B154" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C154" s="27" t="n">
+        <v>151</v>
+      </c>
+      <c r="D154" s="26" t="s">
+        <v>333</v>
+      </c>
+      <c r="E154" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F154" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G154" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="25"/>
-      <c r="B155" s="26"/>
-      <c r="C155" s="26"/>
-      <c r="D155" s="26"/>
-      <c r="E155" s="26"/>
-      <c r="F155" s="26"/>
-      <c r="G155" s="26"/>
+      <c r="A155" s="25" t="s">
+        <v>334</v>
+      </c>
+      <c r="B155" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C155" s="27" t="n">
+        <v>152</v>
+      </c>
+      <c r="D155" s="26" t="s">
+        <v>335</v>
+      </c>
+      <c r="E155" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F155" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G155" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="25"/>
-      <c r="B156" s="26"/>
-      <c r="C156" s="26"/>
-      <c r="D156" s="26"/>
-      <c r="E156" s="26"/>
-      <c r="F156" s="26"/>
-      <c r="G156" s="26"/>
+      <c r="A156" s="25" t="s">
+        <v>336</v>
+      </c>
+      <c r="B156" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C156" s="27" t="n">
+        <v>153</v>
+      </c>
+      <c r="D156" s="26" t="s">
+        <v>337</v>
+      </c>
+      <c r="E156" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F156" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G156" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="25"/>
-      <c r="B157" s="26"/>
-      <c r="C157" s="26"/>
-      <c r="D157" s="26"/>
-      <c r="E157" s="26"/>
-      <c r="F157" s="26"/>
-      <c r="G157" s="26"/>
+      <c r="A157" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="B157" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C157" s="27" t="n">
+        <v>154</v>
+      </c>
+      <c r="D157" s="26" t="s">
+        <v>339</v>
+      </c>
+      <c r="E157" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F157" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G157" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="25"/>
-      <c r="B158" s="26"/>
-      <c r="C158" s="26"/>
-      <c r="D158" s="26"/>
-      <c r="E158" s="26"/>
-      <c r="F158" s="26"/>
-      <c r="G158" s="26"/>
+      <c r="A158" s="25" t="s">
+        <v>340</v>
+      </c>
+      <c r="B158" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C158" s="27" t="n">
+        <v>155</v>
+      </c>
+      <c r="D158" s="26" t="s">
+        <v>341</v>
+      </c>
+      <c r="E158" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F158" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G158" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="25"/>
-      <c r="B159" s="26"/>
-      <c r="C159" s="26"/>
-      <c r="D159" s="26"/>
-      <c r="E159" s="26"/>
-      <c r="F159" s="26"/>
-      <c r="G159" s="26"/>
+      <c r="A159" s="25" t="s">
+        <v>342</v>
+      </c>
+      <c r="B159" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C159" s="27" t="n">
+        <v>156</v>
+      </c>
+      <c r="D159" s="26" t="s">
+        <v>343</v>
+      </c>
+      <c r="E159" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F159" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G159" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="25"/>
-      <c r="B160" s="26"/>
-      <c r="C160" s="26"/>
-      <c r="D160" s="26"/>
-      <c r="E160" s="26"/>
-      <c r="F160" s="26"/>
-      <c r="G160" s="26"/>
+      <c r="A160" s="25" t="s">
+        <v>344</v>
+      </c>
+      <c r="B160" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C160" s="27" t="n">
+        <v>157</v>
+      </c>
+      <c r="D160" s="26" t="s">
+        <v>345</v>
+      </c>
+      <c r="E160" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F160" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G160" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="25"/>
-      <c r="B161" s="26"/>
-      <c r="C161" s="26"/>
-      <c r="D161" s="26"/>
-      <c r="E161" s="26"/>
-      <c r="F161" s="26"/>
-      <c r="G161" s="26"/>
+      <c r="A161" s="25" t="s">
+        <v>346</v>
+      </c>
+      <c r="B161" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C161" s="27" t="n">
+        <v>158</v>
+      </c>
+      <c r="D161" s="26" t="s">
+        <v>347</v>
+      </c>
+      <c r="E161" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F161" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G161" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="25"/>
-      <c r="B162" s="26"/>
-      <c r="C162" s="26"/>
-      <c r="D162" s="26"/>
-      <c r="E162" s="26"/>
-      <c r="F162" s="26"/>
-      <c r="G162" s="26"/>
+      <c r="A162" s="25" t="s">
+        <v>348</v>
+      </c>
+      <c r="B162" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C162" s="27" t="n">
+        <v>159</v>
+      </c>
+      <c r="D162" s="26" t="s">
+        <v>349</v>
+      </c>
+      <c r="E162" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F162" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G162" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="25"/>
-      <c r="B163" s="26"/>
-      <c r="C163" s="26"/>
-      <c r="D163" s="26"/>
-      <c r="E163" s="26"/>
-      <c r="F163" s="26"/>
-      <c r="G163" s="26"/>
+      <c r="A163" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="B163" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C163" s="27" t="n">
+        <v>160</v>
+      </c>
+      <c r="D163" s="26" t="s">
+        <v>351</v>
+      </c>
+      <c r="E163" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F163" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G163" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="25"/>
-      <c r="B164" s="26"/>
-      <c r="C164" s="26"/>
-      <c r="D164" s="26"/>
-      <c r="E164" s="26"/>
-      <c r="F164" s="26"/>
-      <c r="G164" s="26"/>
+      <c r="A164" s="25" t="s">
+        <v>352</v>
+      </c>
+      <c r="B164" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C164" s="27" t="n">
+        <v>161</v>
+      </c>
+      <c r="D164" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="E164" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F164" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G164" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="25"/>
-      <c r="B165" s="26"/>
-      <c r="C165" s="26"/>
-      <c r="D165" s="26"/>
-      <c r="E165" s="26"/>
-      <c r="F165" s="26"/>
-      <c r="G165" s="26"/>
+      <c r="A165" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="B165" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C165" s="27" t="n">
+        <v>162</v>
+      </c>
+      <c r="D165" s="26" t="s">
+        <v>355</v>
+      </c>
+      <c r="E165" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F165" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G165" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="25"/>
-      <c r="B166" s="26"/>
-      <c r="C166" s="26"/>
-      <c r="D166" s="26"/>
-      <c r="E166" s="26"/>
-      <c r="F166" s="26"/>
-      <c r="G166" s="26"/>
+      <c r="A166" s="25" t="s">
+        <v>356</v>
+      </c>
+      <c r="B166" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C166" s="27" t="n">
+        <v>163</v>
+      </c>
+      <c r="D166" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="E166" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F166" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G166" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="25"/>
-      <c r="B167" s="26"/>
-      <c r="C167" s="26"/>
-      <c r="D167" s="26"/>
-      <c r="E167" s="26"/>
-      <c r="F167" s="26"/>
-      <c r="G167" s="26"/>
+      <c r="A167" s="25" t="s">
+        <v>358</v>
+      </c>
+      <c r="B167" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C167" s="27" t="n">
+        <v>164</v>
+      </c>
+      <c r="D167" s="26" t="s">
+        <v>359</v>
+      </c>
+      <c r="E167" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F167" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G167" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="25"/>
-      <c r="B168" s="26"/>
-      <c r="C168" s="26"/>
-      <c r="D168" s="26"/>
-      <c r="E168" s="26"/>
-      <c r="F168" s="26"/>
-      <c r="G168" s="26"/>
+      <c r="A168" s="25" t="s">
+        <v>360</v>
+      </c>
+      <c r="B168" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C168" s="27" t="n">
+        <v>165</v>
+      </c>
+      <c r="D168" s="26" t="s">
+        <v>361</v>
+      </c>
+      <c r="E168" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F168" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G168" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="25"/>
-      <c r="B169" s="26"/>
-      <c r="C169" s="26"/>
-      <c r="D169" s="26"/>
-      <c r="E169" s="26"/>
-      <c r="F169" s="26"/>
-      <c r="G169" s="26"/>
+      <c r="A169" s="25" t="s">
+        <v>362</v>
+      </c>
+      <c r="B169" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C169" s="27" t="n">
+        <v>166</v>
+      </c>
+      <c r="D169" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="E169" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F169" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G169" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="25"/>
-      <c r="B170" s="26"/>
-      <c r="C170" s="26"/>
-      <c r="D170" s="26"/>
-      <c r="E170" s="26"/>
-      <c r="F170" s="26"/>
-      <c r="G170" s="26"/>
+      <c r="A170" s="25" t="s">
+        <v>364</v>
+      </c>
+      <c r="B170" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C170" s="27" t="n">
+        <v>167</v>
+      </c>
+      <c r="D170" s="26" t="s">
+        <v>365</v>
+      </c>
+      <c r="E170" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F170" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G170" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="25"/>
-      <c r="B171" s="26"/>
-      <c r="C171" s="26"/>
-      <c r="D171" s="26"/>
-      <c r="E171" s="26"/>
-      <c r="F171" s="26"/>
-      <c r="G171" s="26"/>
+      <c r="A171" s="25" t="s">
+        <v>366</v>
+      </c>
+      <c r="B171" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C171" s="27" t="n">
+        <v>168</v>
+      </c>
+      <c r="D171" s="26" t="s">
+        <v>367</v>
+      </c>
+      <c r="E171" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F171" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G171" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="25"/>
-      <c r="B172" s="26"/>
-      <c r="C172" s="26"/>
-      <c r="D172" s="26"/>
-      <c r="E172" s="26"/>
-      <c r="F172" s="26"/>
-      <c r="G172" s="26"/>
+      <c r="A172" s="25" t="s">
+        <v>368</v>
+      </c>
+      <c r="B172" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C172" s="27" t="n">
+        <v>169</v>
+      </c>
+      <c r="D172" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="E172" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F172" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G172" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="25"/>
-      <c r="B173" s="26"/>
-      <c r="C173" s="26"/>
-      <c r="D173" s="26"/>
-      <c r="E173" s="26"/>
-      <c r="F173" s="26"/>
-      <c r="G173" s="26"/>
+      <c r="A173" s="25" t="s">
+        <v>370</v>
+      </c>
+      <c r="B173" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C173" s="27" t="n">
+        <v>170</v>
+      </c>
+      <c r="D173" s="26" t="s">
+        <v>371</v>
+      </c>
+      <c r="E173" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F173" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G173" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="25"/>
-      <c r="B174" s="26"/>
-      <c r="C174" s="26"/>
-      <c r="D174" s="26"/>
-      <c r="E174" s="26"/>
-      <c r="F174" s="26"/>
-      <c r="G174" s="26"/>
+      <c r="A174" s="25" t="s">
+        <v>372</v>
+      </c>
+      <c r="B174" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C174" s="27" t="n">
+        <v>171</v>
+      </c>
+      <c r="D174" s="26" t="s">
+        <v>373</v>
+      </c>
+      <c r="E174" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F174" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G174" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="25"/>
-      <c r="B175" s="26"/>
-      <c r="C175" s="26"/>
-      <c r="D175" s="26"/>
-      <c r="E175" s="26"/>
-      <c r="F175" s="26"/>
-      <c r="G175" s="26"/>
+      <c r="A175" s="25" t="s">
+        <v>374</v>
+      </c>
+      <c r="B175" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C175" s="27" t="n">
+        <v>172</v>
+      </c>
+      <c r="D175" s="26" t="s">
+        <v>375</v>
+      </c>
+      <c r="E175" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F175" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G175" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="25"/>
-      <c r="B176" s="26"/>
-      <c r="C176" s="26"/>
-      <c r="D176" s="26"/>
-      <c r="E176" s="26"/>
-      <c r="F176" s="26"/>
-      <c r="G176" s="26"/>
+      <c r="A176" s="25" t="s">
+        <v>376</v>
+      </c>
+      <c r="B176" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C176" s="27" t="n">
+        <v>173</v>
+      </c>
+      <c r="D176" s="26" t="s">
+        <v>377</v>
+      </c>
+      <c r="E176" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F176" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G176" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="25"/>
-      <c r="B177" s="26"/>
-      <c r="C177" s="26"/>
-      <c r="D177" s="26"/>
-      <c r="E177" s="26"/>
-      <c r="F177" s="26"/>
-      <c r="G177" s="26"/>
+      <c r="A177" s="25" t="s">
+        <v>378</v>
+      </c>
+      <c r="B177" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C177" s="27" t="n">
+        <v>174</v>
+      </c>
+      <c r="D177" s="26" t="s">
+        <v>379</v>
+      </c>
+      <c r="E177" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F177" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G177" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="25"/>
-      <c r="B178" s="26"/>
-      <c r="C178" s="26"/>
-      <c r="D178" s="26"/>
-      <c r="E178" s="26"/>
-      <c r="F178" s="26"/>
-      <c r="G178" s="26"/>
+      <c r="A178" s="25" t="s">
+        <v>380</v>
+      </c>
+      <c r="B178" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C178" s="27" t="n">
+        <v>175</v>
+      </c>
+      <c r="D178" s="26" t="s">
+        <v>381</v>
+      </c>
+      <c r="E178" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F178" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G178" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="25"/>
-      <c r="B179" s="26"/>
-      <c r="C179" s="26"/>
-      <c r="D179" s="26"/>
-      <c r="E179" s="26"/>
-      <c r="F179" s="26"/>
-      <c r="G179" s="26"/>
+      <c r="A179" s="25" t="s">
+        <v>382</v>
+      </c>
+      <c r="B179" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C179" s="27" t="n">
+        <v>176</v>
+      </c>
+      <c r="D179" s="26" t="s">
+        <v>383</v>
+      </c>
+      <c r="E179" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F179" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G179" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="25"/>
-      <c r="B180" s="26"/>
-      <c r="C180" s="26"/>
-      <c r="D180" s="26"/>
-      <c r="E180" s="26"/>
-      <c r="F180" s="26"/>
-      <c r="G180" s="26"/>
+      <c r="A180" s="25" t="s">
+        <v>384</v>
+      </c>
+      <c r="B180" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C180" s="27" t="n">
+        <v>177</v>
+      </c>
+      <c r="D180" s="26" t="s">
+        <v>385</v>
+      </c>
+      <c r="E180" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F180" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G180" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="25"/>
-      <c r="B181" s="26"/>
-      <c r="C181" s="26"/>
-      <c r="D181" s="26"/>
-      <c r="E181" s="26"/>
-      <c r="F181" s="26"/>
-      <c r="G181" s="26"/>
+      <c r="A181" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="B181" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C181" s="27" t="n">
+        <v>178</v>
+      </c>
+      <c r="D181" s="26" t="s">
+        <v>387</v>
+      </c>
+      <c r="E181" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F181" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G181" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="25"/>
-      <c r="B182" s="26"/>
-      <c r="C182" s="26"/>
-      <c r="D182" s="26"/>
-      <c r="E182" s="26"/>
-      <c r="F182" s="26"/>
-      <c r="G182" s="26"/>
+      <c r="A182" s="25" t="s">
+        <v>388</v>
+      </c>
+      <c r="B182" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C182" s="27" t="n">
+        <v>179</v>
+      </c>
+      <c r="D182" s="26" t="s">
+        <v>389</v>
+      </c>
+      <c r="E182" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F182" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G182" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="25"/>
-      <c r="B183" s="26"/>
-      <c r="C183" s="26"/>
-      <c r="D183" s="26"/>
-      <c r="E183" s="26"/>
-      <c r="F183" s="26"/>
-      <c r="G183" s="26"/>
+      <c r="A183" s="25" t="s">
+        <v>390</v>
+      </c>
+      <c r="B183" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C183" s="27" t="n">
+        <v>180</v>
+      </c>
+      <c r="D183" s="26" t="s">
+        <v>391</v>
+      </c>
+      <c r="E183" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F183" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G183" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="25"/>
-      <c r="B184" s="26"/>
-      <c r="C184" s="26"/>
-      <c r="D184" s="26"/>
-      <c r="E184" s="26"/>
-      <c r="F184" s="26"/>
-      <c r="G184" s="26"/>
+      <c r="A184" s="25" t="s">
+        <v>392</v>
+      </c>
+      <c r="B184" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C184" s="27" t="n">
+        <v>181</v>
+      </c>
+      <c r="D184" s="26" t="s">
+        <v>393</v>
+      </c>
+      <c r="E184" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F184" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G184" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="25"/>
-      <c r="B185" s="26"/>
-      <c r="C185" s="26"/>
-      <c r="D185" s="26"/>
-      <c r="E185" s="26"/>
-      <c r="F185" s="26"/>
-      <c r="G185" s="26"/>
+      <c r="A185" s="25" t="s">
+        <v>394</v>
+      </c>
+      <c r="B185" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C185" s="27" t="n">
+        <v>182</v>
+      </c>
+      <c r="D185" s="26" t="s">
+        <v>395</v>
+      </c>
+      <c r="E185" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F185" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G185" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="25"/>
-      <c r="B186" s="26"/>
-      <c r="C186" s="26"/>
-      <c r="D186" s="26"/>
-      <c r="E186" s="26"/>
-      <c r="F186" s="26"/>
-      <c r="G186" s="26"/>
+      <c r="A186" s="25" t="s">
+        <v>396</v>
+      </c>
+      <c r="B186" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C186" s="27" t="n">
+        <v>183</v>
+      </c>
+      <c r="D186" s="26" t="s">
+        <v>397</v>
+      </c>
+      <c r="E186" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F186" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G186" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="25"/>
-      <c r="B187" s="26"/>
-      <c r="C187" s="26"/>
-      <c r="D187" s="26"/>
-      <c r="E187" s="26"/>
-      <c r="F187" s="26"/>
-      <c r="G187" s="26"/>
+      <c r="A187" s="25" t="s">
+        <v>398</v>
+      </c>
+      <c r="B187" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C187" s="27" t="n">
+        <v>184</v>
+      </c>
+      <c r="D187" s="26" t="s">
+        <v>399</v>
+      </c>
+      <c r="E187" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F187" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G187" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="25"/>
-      <c r="B188" s="26"/>
-      <c r="C188" s="26"/>
-      <c r="D188" s="26"/>
-      <c r="E188" s="26"/>
-      <c r="F188" s="26"/>
-      <c r="G188" s="26"/>
+      <c r="A188" s="25" t="s">
+        <v>400</v>
+      </c>
+      <c r="B188" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C188" s="27" t="n">
+        <v>185</v>
+      </c>
+      <c r="D188" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="E188" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F188" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G188" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="25"/>
-      <c r="B189" s="26"/>
-      <c r="C189" s="26"/>
-      <c r="D189" s="26"/>
-      <c r="E189" s="26"/>
-      <c r="F189" s="26"/>
-      <c r="G189" s="26"/>
+      <c r="A189" s="25" t="s">
+        <v>402</v>
+      </c>
+      <c r="B189" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C189" s="27" t="n">
+        <v>186</v>
+      </c>
+      <c r="D189" s="26" t="s">
+        <v>403</v>
+      </c>
+      <c r="E189" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F189" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G189" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="25"/>
-      <c r="B190" s="26"/>
-      <c r="C190" s="26"/>
-      <c r="D190" s="26"/>
-      <c r="E190" s="26"/>
-      <c r="F190" s="26"/>
-      <c r="G190" s="26"/>
+      <c r="A190" s="25" t="s">
+        <v>404</v>
+      </c>
+      <c r="B190" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C190" s="27" t="n">
+        <v>187</v>
+      </c>
+      <c r="D190" s="26" t="s">
+        <v>405</v>
+      </c>
+      <c r="E190" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F190" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G190" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="25"/>
-      <c r="B191" s="26"/>
-      <c r="C191" s="26"/>
-      <c r="D191" s="26"/>
-      <c r="E191" s="26"/>
-      <c r="F191" s="26"/>
-      <c r="G191" s="26"/>
+      <c r="A191" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="B191" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C191" s="27" t="n">
+        <v>188</v>
+      </c>
+      <c r="D191" s="26" t="s">
+        <v>407</v>
+      </c>
+      <c r="E191" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F191" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G191" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="25"/>
-      <c r="B192" s="26"/>
-      <c r="C192" s="26"/>
-      <c r="D192" s="26"/>
-      <c r="E192" s="26"/>
-      <c r="F192" s="26"/>
-      <c r="G192" s="26"/>
+      <c r="A192" s="25" t="s">
+        <v>408</v>
+      </c>
+      <c r="B192" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C192" s="27" t="n">
+        <v>189</v>
+      </c>
+      <c r="D192" s="26" t="s">
+        <v>409</v>
+      </c>
+      <c r="E192" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F192" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G192" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="25"/>
-      <c r="B193" s="26"/>
-      <c r="C193" s="26"/>
-      <c r="D193" s="26"/>
-      <c r="E193" s="26"/>
-      <c r="F193" s="26"/>
-      <c r="G193" s="26"/>
+      <c r="A193" s="25" t="s">
+        <v>410</v>
+      </c>
+      <c r="B193" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C193" s="27" t="n">
+        <v>190</v>
+      </c>
+      <c r="D193" s="26" t="s">
+        <v>411</v>
+      </c>
+      <c r="E193" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F193" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G193" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="25"/>
-      <c r="B194" s="26"/>
-      <c r="C194" s="26"/>
-      <c r="D194" s="26"/>
-      <c r="E194" s="26"/>
-      <c r="F194" s="26"/>
-      <c r="G194" s="26"/>
+      <c r="A194" s="25" t="s">
+        <v>412</v>
+      </c>
+      <c r="B194" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C194" s="27" t="n">
+        <v>191</v>
+      </c>
+      <c r="D194" s="26" t="s">
+        <v>413</v>
+      </c>
+      <c r="E194" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F194" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G194" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="25"/>
-      <c r="B195" s="26"/>
-      <c r="C195" s="26"/>
-      <c r="D195" s="26"/>
-      <c r="E195" s="26"/>
-      <c r="F195" s="26"/>
-      <c r="G195" s="26"/>
+      <c r="A195" s="25" t="s">
+        <v>414</v>
+      </c>
+      <c r="B195" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C195" s="27" t="n">
+        <v>192</v>
+      </c>
+      <c r="D195" s="26" t="s">
+        <v>415</v>
+      </c>
+      <c r="E195" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F195" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G195" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="25"/>
-      <c r="B196" s="26"/>
-      <c r="C196" s="26"/>
-      <c r="D196" s="26"/>
-      <c r="E196" s="26"/>
-      <c r="F196" s="26"/>
-      <c r="G196" s="26"/>
+      <c r="A196" s="25" t="s">
+        <v>416</v>
+      </c>
+      <c r="B196" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C196" s="27" t="n">
+        <v>193</v>
+      </c>
+      <c r="D196" s="26" t="s">
+        <v>417</v>
+      </c>
+      <c r="E196" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F196" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G196" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="25"/>
-      <c r="B197" s="26"/>
-      <c r="C197" s="26"/>
-      <c r="D197" s="26"/>
-      <c r="E197" s="26"/>
-      <c r="F197" s="26"/>
-      <c r="G197" s="26"/>
+      <c r="A197" s="25" t="s">
+        <v>418</v>
+      </c>
+      <c r="B197" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C197" s="27" t="n">
+        <v>194</v>
+      </c>
+      <c r="D197" s="26" t="s">
+        <v>419</v>
+      </c>
+      <c r="E197" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F197" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G197" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="25"/>
-      <c r="B198" s="26"/>
-      <c r="C198" s="26"/>
-      <c r="D198" s="26"/>
-      <c r="E198" s="26"/>
-      <c r="F198" s="26"/>
-      <c r="G198" s="26"/>
+      <c r="A198" s="25" t="s">
+        <v>420</v>
+      </c>
+      <c r="B198" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C198" s="27" t="n">
+        <v>195</v>
+      </c>
+      <c r="D198" s="26" t="s">
+        <v>421</v>
+      </c>
+      <c r="E198" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F198" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G198" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="25"/>
-      <c r="B199" s="26"/>
-      <c r="C199" s="26"/>
-      <c r="D199" s="26"/>
-      <c r="E199" s="26"/>
-      <c r="F199" s="26"/>
-      <c r="G199" s="26"/>
+      <c r="A199" s="25" t="s">
+        <v>422</v>
+      </c>
+      <c r="B199" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C199" s="27" t="n">
+        <v>196</v>
+      </c>
+      <c r="D199" s="26" t="s">
+        <v>423</v>
+      </c>
+      <c r="E199" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F199" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G199" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="25"/>
-      <c r="B200" s="26"/>
-      <c r="C200" s="26"/>
-      <c r="D200" s="26"/>
-      <c r="E200" s="26"/>
-      <c r="F200" s="26"/>
-      <c r="G200" s="26"/>
+      <c r="A200" s="25" t="s">
+        <v>424</v>
+      </c>
+      <c r="B200" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C200" s="27" t="n">
+        <v>197</v>
+      </c>
+      <c r="D200" s="26" t="s">
+        <v>425</v>
+      </c>
+      <c r="E200" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F200" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G200" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="25"/>
-      <c r="B201" s="26"/>
-      <c r="C201" s="26"/>
-      <c r="D201" s="26"/>
-      <c r="E201" s="26"/>
-      <c r="F201" s="26"/>
-      <c r="G201" s="26"/>
+      <c r="A201" s="25" t="s">
+        <v>426</v>
+      </c>
+      <c r="B201" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C201" s="27" t="n">
+        <v>198</v>
+      </c>
+      <c r="D201" s="26" t="s">
+        <v>427</v>
+      </c>
+      <c r="E201" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F201" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G201" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="25"/>
-      <c r="B202" s="26"/>
-      <c r="C202" s="26"/>
-      <c r="D202" s="26"/>
-      <c r="E202" s="26"/>
-      <c r="F202" s="26"/>
-      <c r="G202" s="26"/>
+      <c r="A202" s="25" t="s">
+        <v>428</v>
+      </c>
+      <c r="B202" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C202" s="27" t="n">
+        <v>199</v>
+      </c>
+      <c r="D202" s="26" t="s">
+        <v>429</v>
+      </c>
+      <c r="E202" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F202" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G202" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="25"/>
-      <c r="B203" s="26"/>
-      <c r="C203" s="26"/>
-      <c r="D203" s="26"/>
-      <c r="E203" s="26"/>
-      <c r="F203" s="26"/>
-      <c r="G203" s="26"/>
+      <c r="A203" s="25" t="s">
+        <v>430</v>
+      </c>
+      <c r="B203" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C203" s="27" t="n">
+        <v>200</v>
+      </c>
+      <c r="D203" s="26" t="s">
+        <v>431</v>
+      </c>
+      <c r="E203" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F203" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G203" s="28" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="25"/>
@@ -36336,7 +38436,7 @@
   <dimension ref="A1:K1001"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16:G21"/>
+      <selection pane="topLeft" activeCell="H15" activeCellId="0" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -36359,69 +38459,69 @@
         <v>16</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>232</v>
+        <v>432</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>233</v>
+        <v>433</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>234</v>
+        <v>434</v>
       </c>
       <c r="E1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>235</v>
+        <v>435</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>236</v>
+        <v>436</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>237</v>
+        <v>437</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>238</v>
+        <v>438</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>239</v>
+        <v>439</v>
       </c>
       <c r="K1" s="14" t="s">
-        <v>240</v>
+        <v>440</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="15" t="s">
-        <v>241</v>
+        <v>441</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>242</v>
+        <v>442</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>243</v>
+        <v>443</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>244</v>
+        <v>444</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>245</v>
+        <v>445</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>246</v>
+        <v>446</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>247</v>
+        <v>447</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>248</v>
+        <v>448</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>249</v>
+        <v>449</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>251</v>
+        <v>451</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36435,7 +38535,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>252</v>
+        <v>452</v>
       </c>
       <c r="E3" s="19" t="s">
         <v>7</v>
@@ -36461,19 +38561,19 @@
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="26" t="s">
-        <v>253</v>
+        <v>453</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>254</v>
+        <v>454</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>255</v>
+        <v>455</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>256</v>
+        <v>456</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>257</v>
+        <v>457</v>
       </c>
       <c r="F4" s="28" t="b">
         <f aca="false">FALSE()</f>
@@ -36487,32 +38587,32 @@
         <v>-1</v>
       </c>
       <c r="I4" s="36" t="s">
-        <v>258</v>
+        <v>458</v>
       </c>
       <c r="J4" s="26" t="s">
-        <v>259</v>
+        <v>459</v>
       </c>
       <c r="K4" s="36" t="s">
-        <v>260</v>
+        <v>460</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="26" t="s">
-        <v>261</v>
+        <v>461</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>262</v>
+        <v>462</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>262</v>
+        <v>462</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>256</v>
+        <v>456</v>
       </c>
       <c r="E5" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="28" t="n">
+      <c r="F5" s="26" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -36524,32 +38624,32 @@
         <v>-1</v>
       </c>
       <c r="I5" s="36" t="s">
-        <v>258</v>
+        <v>458</v>
       </c>
       <c r="J5" s="26" t="s">
-        <v>263</v>
+        <v>463</v>
       </c>
       <c r="K5" s="36" t="s">
-        <v>264</v>
+        <v>464</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="26" t="s">
-        <v>265</v>
+        <v>465</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>266</v>
+        <v>466</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>267</v>
+        <v>467</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>256</v>
+        <v>456</v>
       </c>
       <c r="E6" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="28" t="n">
+      <c r="F6" s="26" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -36561,32 +38661,32 @@
         <v>-1</v>
       </c>
       <c r="I6" s="36" t="s">
-        <v>258</v>
+        <v>458</v>
       </c>
       <c r="J6" s="26" t="s">
-        <v>268</v>
+        <v>468</v>
       </c>
       <c r="K6" s="36" t="s">
-        <v>269</v>
+        <v>469</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="26" t="s">
-        <v>270</v>
+        <v>470</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>271</v>
+        <v>471</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>271</v>
+        <v>471</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>256</v>
+        <v>456</v>
       </c>
       <c r="E7" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="28" t="n">
+      <c r="F7" s="26" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -36598,32 +38698,32 @@
         <v>-1</v>
       </c>
       <c r="I7" s="36" t="s">
-        <v>258</v>
+        <v>458</v>
       </c>
       <c r="J7" s="26" t="s">
-        <v>268</v>
+        <v>468</v>
       </c>
       <c r="K7" s="36" t="s">
-        <v>272</v>
+        <v>472</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="26" t="s">
-        <v>273</v>
+        <v>473</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>274</v>
+        <v>474</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>274</v>
+        <v>474</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>256</v>
+        <v>456</v>
       </c>
       <c r="E8" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="28" t="n">
+      <c r="F8" s="26" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -36635,32 +38735,32 @@
         <v>-1</v>
       </c>
       <c r="I8" s="36" t="s">
-        <v>258</v>
+        <v>458</v>
       </c>
       <c r="J8" s="26" t="s">
-        <v>268</v>
+        <v>468</v>
       </c>
       <c r="K8" s="36" t="s">
-        <v>275</v>
+        <v>475</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="26" t="s">
-        <v>276</v>
+        <v>476</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>277</v>
+        <v>477</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>277</v>
+        <v>477</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>256</v>
+        <v>456</v>
       </c>
       <c r="E9" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="28" t="n">
+      <c r="F9" s="26" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -36672,32 +38772,32 @@
         <v>-1</v>
       </c>
       <c r="I9" s="36" t="s">
-        <v>258</v>
+        <v>458</v>
       </c>
       <c r="J9" s="26" t="s">
-        <v>268</v>
+        <v>468</v>
       </c>
       <c r="K9" s="36" t="s">
-        <v>278</v>
+        <v>478</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="26" t="s">
-        <v>279</v>
+        <v>479</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>280</v>
+        <v>480</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>281</v>
+        <v>481</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>256</v>
+        <v>456</v>
       </c>
       <c r="E10" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="28" t="n">
+      <c r="F10" s="26" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -36709,32 +38809,32 @@
         <v>-1</v>
       </c>
       <c r="I10" s="36" t="s">
-        <v>258</v>
+        <v>458</v>
       </c>
       <c r="J10" s="26" t="s">
-        <v>263</v>
+        <v>463</v>
       </c>
       <c r="K10" s="36" t="s">
-        <v>282</v>
+        <v>482</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="26" t="s">
-        <v>283</v>
+        <v>483</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>284</v>
+        <v>484</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>285</v>
+        <v>485</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>256</v>
+        <v>456</v>
       </c>
       <c r="E11" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="28" t="n">
+      <c r="F11" s="26" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -36746,30 +38846,30 @@
         <v>-1</v>
       </c>
       <c r="I11" s="36" t="s">
-        <v>258</v>
+        <v>458</v>
       </c>
       <c r="J11" s="26" t="s">
-        <v>263</v>
+        <v>463</v>
       </c>
       <c r="K11" s="36" t="s">
-        <v>286</v>
+        <v>486</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="26" t="s">
-        <v>287</v>
+        <v>487</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>288</v>
+        <v>488</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>288</v>
+        <v>488</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>256</v>
+        <v>456</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>289</v>
+        <v>489</v>
       </c>
       <c r="F12" s="28" t="b">
         <f aca="false">TRUE()</f>
@@ -36783,30 +38883,30 @@
         <v>900</v>
       </c>
       <c r="I12" s="36" t="s">
-        <v>290</v>
+        <v>490</v>
       </c>
       <c r="J12" s="26" t="s">
-        <v>268</v>
+        <v>468</v>
       </c>
       <c r="K12" s="36" t="s">
-        <v>291</v>
+        <v>491</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="26" t="s">
-        <v>292</v>
+        <v>492</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>293</v>
+        <v>493</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>293</v>
+        <v>493</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>256</v>
+        <v>456</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>289</v>
+        <v>489</v>
       </c>
       <c r="F13" s="28" t="b">
         <f aca="false">TRUE()</f>
@@ -36820,30 +38920,30 @@
         <v>2250</v>
       </c>
       <c r="I13" s="36" t="s">
-        <v>290</v>
+        <v>490</v>
       </c>
       <c r="J13" s="26" t="s">
-        <v>268</v>
+        <v>468</v>
       </c>
       <c r="K13" s="36" t="s">
-        <v>294</v>
+        <v>494</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="26" t="s">
-        <v>295</v>
+        <v>495</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>296</v>
+        <v>496</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>296</v>
+        <v>496</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>256</v>
+        <v>456</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>289</v>
+        <v>489</v>
       </c>
       <c r="F14" s="28" t="b">
         <f aca="false">TRUE()</f>
@@ -36857,30 +38957,30 @@
         <v>3600</v>
       </c>
       <c r="I14" s="36" t="s">
-        <v>290</v>
+        <v>490</v>
       </c>
       <c r="J14" s="26" t="s">
-        <v>268</v>
+        <v>468</v>
       </c>
       <c r="K14" s="36" t="s">
-        <v>297</v>
+        <v>497</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="26" t="s">
-        <v>298</v>
+        <v>498</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>299</v>
+        <v>499</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>299</v>
+        <v>499</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>256</v>
+        <v>456</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>289</v>
+        <v>489</v>
       </c>
       <c r="F15" s="28" t="b">
         <f aca="false">TRUE()</f>
@@ -36891,33 +38991,33 @@
         <v>0</v>
       </c>
       <c r="H15" s="36" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="I15" s="36" t="s">
-        <v>290</v>
+        <v>490</v>
       </c>
       <c r="J15" s="26" t="s">
-        <v>268</v>
+        <v>468</v>
       </c>
       <c r="K15" s="36" t="s">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="26" t="s">
-        <v>301</v>
+        <v>501</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>302</v>
+        <v>502</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>302</v>
+        <v>502</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>256</v>
+        <v>456</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>303</v>
+        <v>503</v>
       </c>
       <c r="F16" s="28" t="b">
         <f aca="false">TRUE()</f>
@@ -36931,30 +39031,30 @@
         <v>-1</v>
       </c>
       <c r="I16" s="36" t="s">
-        <v>258</v>
+        <v>458</v>
       </c>
       <c r="J16" s="26" t="s">
-        <v>268</v>
+        <v>468</v>
       </c>
       <c r="K16" s="36" t="s">
-        <v>304</v>
+        <v>504</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="26" t="s">
-        <v>305</v>
+        <v>505</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>306</v>
+        <v>506</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>306</v>
+        <v>506</v>
       </c>
       <c r="D17" s="26" t="s">
-        <v>256</v>
+        <v>456</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>303</v>
+        <v>503</v>
       </c>
       <c r="F17" s="28" t="b">
         <f aca="false">TRUE()</f>
@@ -36968,30 +39068,30 @@
         <v>-1</v>
       </c>
       <c r="I17" s="36" t="s">
-        <v>258</v>
+        <v>458</v>
       </c>
       <c r="J17" s="26" t="s">
-        <v>268</v>
+        <v>468</v>
       </c>
       <c r="K17" s="36" t="s">
-        <v>307</v>
+        <v>507</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="26" t="s">
-        <v>308</v>
+        <v>508</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>309</v>
+        <v>509</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>309</v>
+        <v>509</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>256</v>
+        <v>456</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>303</v>
+        <v>503</v>
       </c>
       <c r="F18" s="28" t="b">
         <f aca="false">TRUE()</f>
@@ -37005,30 +39105,30 @@
         <v>-1</v>
       </c>
       <c r="I18" s="36" t="s">
-        <v>258</v>
+        <v>458</v>
       </c>
       <c r="J18" s="26" t="s">
-        <v>268</v>
+        <v>468</v>
       </c>
       <c r="K18" s="36" t="s">
-        <v>310</v>
+        <v>510</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="26" t="s">
-        <v>311</v>
+        <v>511</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>312</v>
+        <v>512</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>312</v>
+        <v>512</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>256</v>
+        <v>456</v>
       </c>
       <c r="E19" s="26" t="s">
-        <v>303</v>
+        <v>503</v>
       </c>
       <c r="F19" s="28" t="b">
         <f aca="false">TRUE()</f>
@@ -37042,30 +39142,30 @@
         <v>-1</v>
       </c>
       <c r="I19" s="36" t="s">
-        <v>258</v>
+        <v>458</v>
       </c>
       <c r="J19" s="26" t="s">
-        <v>268</v>
+        <v>468</v>
       </c>
       <c r="K19" s="36" t="s">
-        <v>313</v>
+        <v>513</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="26" t="s">
-        <v>314</v>
+        <v>514</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>315</v>
+        <v>515</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>315</v>
+        <v>515</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>256</v>
+        <v>456</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>303</v>
+        <v>503</v>
       </c>
       <c r="F20" s="28" t="b">
         <f aca="false">TRUE()</f>
@@ -37079,30 +39179,30 @@
         <v>-1</v>
       </c>
       <c r="I20" s="36" t="s">
-        <v>258</v>
+        <v>458</v>
       </c>
       <c r="J20" s="26" t="s">
-        <v>268</v>
+        <v>468</v>
       </c>
       <c r="K20" s="36" t="s">
-        <v>316</v>
+        <v>516</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="26" t="s">
-        <v>317</v>
+        <v>517</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>318</v>
+        <v>518</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>318</v>
+        <v>518</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>256</v>
+        <v>456</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>303</v>
+        <v>503</v>
       </c>
       <c r="F21" s="28" t="b">
         <f aca="false">TRUE()</f>
@@ -37116,13 +39216,13 @@
         <v>-1</v>
       </c>
       <c r="I21" s="36" t="s">
-        <v>258</v>
+        <v>458</v>
       </c>
       <c r="J21" s="26" t="s">
-        <v>268</v>
+        <v>468</v>
       </c>
       <c r="K21" s="36" t="s">
-        <v>319</v>
+        <v>519</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
